--- a/기능정의서_1조.xlsx
+++ b/기능정의서_1조.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\big1-04\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\big1-04\Desktop\응용SW 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <r>
       <t xml:space="preserve">모든 페이지 하단 출력
@@ -217,25 +217,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">모든 페이지 상단 출력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 메인화면으로 바로가기 링크 로고 구현
-- 네비게이션 바 구현 전 메뉴 이용가능
-- 검색기능 부여 (상세검색기능도 구현)
-- 메인메뉴 개편 (공지사항, 빅데이터 관련 메뉴추가)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">언론, 키워드, 소셜데이터 빅데이터 산출
 - 산출된 자료로 경제,사회 상황 진단하는 시각화 자료 개발 
 - 경제지수 대시보드 및 각 지수 하부 영역 시각화 
@@ -560,9 +541,6 @@
     <t>Depath1</t>
   </si>
   <si>
-    <t>기능 정의</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -680,6 +658,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>-side1</t>
     </r>
@@ -694,6 +674,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>-</t>
     </r>
@@ -718,6 +700,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>-</t>
     </r>
@@ -791,6 +775,85 @@
 - 경제 정책에 대한 관련 최신 뉴스 자료 제공
 - 오른쪽 더보기 메뉴 클릭시 관련 페이지로 이동</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 정의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">모든 페이지 상단 출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">- 메인화면으로 바로가기 링크 로고 구현
+- 네비게이션 바 구현 전 메뉴 이용가능
+- 검색기능 부여 (상세검색기능도 구현)
+- 메인메뉴 개편 (공지사항, 빅데이터 관련 메뉴추가)
+- 로그인 시 로그아웃 화면 출력
+- 구독 주소변경, 비밀번호 변경 추가 </t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>DI-common-admin-mag</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>dmin</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>mg</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자 회원관리 기능 
+- 관리자가 회원 이메일 조회 및 주소 변경시 주소 조회가능 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -869,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -940,6 +1003,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -949,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,29 +1049,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1019,16 +1070,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1215,7 +1296,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1224,7 +1305,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1504,10 +1585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1519,112 +1600,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="A1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="L3" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="1:17" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="1:17" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1632,59 +1713,59 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1694,245 +1775,245 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>79</v>
+      <c r="B12" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>84</v>
+      <c r="B14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -1941,196 +2022,196 @@
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>83</v>
+      <c r="C15" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29"/>
+    </row>
+    <row r="21" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2138,131 +2219,131 @@
         <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="22"/>
-    </row>
-    <row r="22" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+        <v>64</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-    </row>
-    <row r="24" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="22"/>
-    </row>
-    <row r="25" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -2270,30 +2351,30 @@
         <v>10</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
@@ -2303,32 +2384,32 @@
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -2336,115 +2417,129 @@
         <v>10</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-    </row>
-    <row r="29" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
+    </row>
+    <row r="30" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -2458,12 +2553,12 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
@@ -4061,104 +4156,48 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="16"/>
     </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="122">
     <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L102:Q102"/>
-    <mergeCell ref="L103:Q103"/>
-    <mergeCell ref="L104:Q104"/>
-    <mergeCell ref="L105:Q105"/>
-    <mergeCell ref="L115:Q115"/>
-    <mergeCell ref="L106:Q106"/>
-    <mergeCell ref="L107:Q107"/>
-    <mergeCell ref="L108:Q108"/>
-    <mergeCell ref="L109:Q109"/>
-    <mergeCell ref="L110:Q110"/>
-    <mergeCell ref="L111:Q111"/>
-    <mergeCell ref="L112:Q112"/>
-    <mergeCell ref="L113:Q113"/>
-    <mergeCell ref="L114:Q114"/>
-    <mergeCell ref="L93:Q93"/>
-    <mergeCell ref="L94:Q94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="L96:Q96"/>
-    <mergeCell ref="L97:Q97"/>
-    <mergeCell ref="L98:Q98"/>
-    <mergeCell ref="L99:Q99"/>
-    <mergeCell ref="L100:Q100"/>
-    <mergeCell ref="L101:Q101"/>
-    <mergeCell ref="L84:Q84"/>
-    <mergeCell ref="L85:Q85"/>
-    <mergeCell ref="L86:Q86"/>
-    <mergeCell ref="L87:Q87"/>
-    <mergeCell ref="L88:Q88"/>
-    <mergeCell ref="L89:Q89"/>
-    <mergeCell ref="L90:Q90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="L92:Q92"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="L76:Q76"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="L79:Q79"/>
-    <mergeCell ref="L80:Q80"/>
-    <mergeCell ref="L81:Q81"/>
-    <mergeCell ref="L82:Q82"/>
-    <mergeCell ref="L83:Q83"/>
-    <mergeCell ref="L66:Q66"/>
-    <mergeCell ref="L67:Q67"/>
-    <mergeCell ref="L68:Q68"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="L70:Q70"/>
-    <mergeCell ref="L71:Q71"/>
-    <mergeCell ref="L72:Q72"/>
-    <mergeCell ref="L73:Q73"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="L58:Q58"/>
-    <mergeCell ref="L59:Q59"/>
-    <mergeCell ref="L60:Q60"/>
-    <mergeCell ref="L61:Q61"/>
-    <mergeCell ref="L62:Q62"/>
-    <mergeCell ref="L63:Q63"/>
-    <mergeCell ref="L64:Q64"/>
-    <mergeCell ref="L65:Q65"/>
-    <mergeCell ref="L48:Q48"/>
-    <mergeCell ref="L49:Q49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="L51:Q51"/>
-    <mergeCell ref="L52:Q52"/>
-    <mergeCell ref="L53:Q53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L55:Q55"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="L44:Q44"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="L47:Q47"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="L35:Q35"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:Q4"/>
     <mergeCell ref="L15:Q15"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="L17:Q17"/>
@@ -4173,17 +4212,93 @@
     <mergeCell ref="L12:Q12"/>
     <mergeCell ref="L13:Q13"/>
     <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="A1:Q2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:Q4"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="L35:Q35"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="L44:Q44"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="L47:Q47"/>
+    <mergeCell ref="L48:Q48"/>
+    <mergeCell ref="L49:Q49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="L51:Q51"/>
+    <mergeCell ref="L52:Q52"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="L58:Q58"/>
+    <mergeCell ref="L59:Q59"/>
+    <mergeCell ref="L60:Q60"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="L62:Q62"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="L64:Q64"/>
+    <mergeCell ref="L65:Q65"/>
+    <mergeCell ref="L66:Q66"/>
+    <mergeCell ref="L67:Q67"/>
+    <mergeCell ref="L68:Q68"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="L71:Q71"/>
+    <mergeCell ref="L72:Q72"/>
+    <mergeCell ref="L73:Q73"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="L76:Q76"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="L79:Q79"/>
+    <mergeCell ref="L80:Q80"/>
+    <mergeCell ref="L81:Q81"/>
+    <mergeCell ref="L82:Q82"/>
+    <mergeCell ref="L83:Q83"/>
+    <mergeCell ref="L84:Q84"/>
+    <mergeCell ref="L85:Q85"/>
+    <mergeCell ref="L86:Q86"/>
+    <mergeCell ref="L87:Q87"/>
+    <mergeCell ref="L88:Q88"/>
+    <mergeCell ref="L89:Q89"/>
+    <mergeCell ref="L90:Q90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="L92:Q92"/>
+    <mergeCell ref="L93:Q93"/>
+    <mergeCell ref="L94:Q94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="L96:Q96"/>
+    <mergeCell ref="L97:Q97"/>
+    <mergeCell ref="L98:Q98"/>
+    <mergeCell ref="L99:Q99"/>
+    <mergeCell ref="L100:Q100"/>
+    <mergeCell ref="L101:Q101"/>
+    <mergeCell ref="L102:Q102"/>
+    <mergeCell ref="L103:Q103"/>
+    <mergeCell ref="L104:Q104"/>
+    <mergeCell ref="L105:Q105"/>
+    <mergeCell ref="L106:Q106"/>
+    <mergeCell ref="L116:Q116"/>
+    <mergeCell ref="L107:Q107"/>
+    <mergeCell ref="L108:Q108"/>
+    <mergeCell ref="L109:Q109"/>
+    <mergeCell ref="L110:Q110"/>
+    <mergeCell ref="L111:Q111"/>
+    <mergeCell ref="L112:Q112"/>
+    <mergeCell ref="L113:Q113"/>
+    <mergeCell ref="L114:Q114"/>
+    <mergeCell ref="L115:Q115"/>
+    <mergeCell ref="L21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
